--- a/Config/Calibrations/Crane Bay ShuntCal LBCB2.xlsx
+++ b/Config/Calibrations/Crane Bay ShuntCal LBCB2.xlsx
@@ -15,9 +15,6 @@
     <sheet name="Z2 LOAD CELL" sheetId="14" r:id="rId6"/>
     <sheet name="Z3 LOAD CELL" sheetId="15" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId8"/>
-  </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -185,7 +182,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -435,29 +432,29 @@
     <xf numFmtId="2" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -467,23 +464,23 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -497,28 +494,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -753,13 +750,13 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.0408400000000002</c:v>
+                  <c:v>3.0278200000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.31564999999999999</c:v>
+                  <c:v>0.16358300000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.6856499999999999</c:v>
+                  <c:v>-2.70045</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -792,11 +789,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="140579904"/>
-        <c:axId val="140580480"/>
+        <c:axId val="74612736"/>
+        <c:axId val="74613312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="140579904"/>
+        <c:axId val="74612736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -870,12 +867,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140580480"/>
+        <c:crossAx val="74613312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="140580480"/>
+        <c:axId val="74613312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -959,7 +956,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140579904"/>
+        <c:crossAx val="74612736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1204,13 +1201,13 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.0139800000000001</c:v>
+                  <c:v>3.04833</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26650200000000002</c:v>
+                  <c:v>0.14116699999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.7797399999999999</c:v>
+                  <c:v>-2.74864</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1243,11 +1240,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="142051008"/>
-        <c:axId val="142051584"/>
+        <c:axId val="74615040"/>
+        <c:axId val="74615616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142051008"/>
+        <c:axId val="74615040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1321,12 +1318,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142051584"/>
+        <c:crossAx val="74615616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142051584"/>
+        <c:axId val="74615616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1410,7 +1407,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142051008"/>
+        <c:crossAx val="74615040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1655,13 +1652,13 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.0680399999999999</c:v>
+                  <c:v>3.0439099999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25391200000000003</c:v>
+                  <c:v>0.13650000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.7488800000000002</c:v>
+                  <c:v>-2.7726899999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1694,11 +1691,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="142055616"/>
-        <c:axId val="142056192"/>
+        <c:axId val="74617344"/>
+        <c:axId val="74617920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142055616"/>
+        <c:axId val="74617344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1772,12 +1769,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142056192"/>
+        <c:crossAx val="74617920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142056192"/>
+        <c:axId val="74617920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1861,7 +1858,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142055616"/>
+        <c:crossAx val="74617344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2106,13 +2103,13 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.73936</c:v>
+                  <c:v>3.3293200000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.14335500000000001</c:v>
+                  <c:v>0.44909399999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3.0323699999999998</c:v>
+                  <c:v>-2.4423300000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2145,11 +2142,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="142076736"/>
-        <c:axId val="142077312"/>
+        <c:axId val="74619648"/>
+        <c:axId val="74620224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142076736"/>
+        <c:axId val="74619648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2223,12 +2220,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142077312"/>
+        <c:crossAx val="74620224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142077312"/>
+        <c:axId val="74620224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2312,7 +2309,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142076736"/>
+        <c:crossAx val="74619648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2557,13 +2554,13 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.9192</c:v>
+                  <c:v>3.2493599999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.04461</c:v>
+                  <c:v>0.37279200000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.8371599999999999</c:v>
+                  <c:v>-2.50562</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2596,11 +2593,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="142081344"/>
-        <c:axId val="142606336"/>
+        <c:axId val="127050880"/>
+        <c:axId val="127051456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142081344"/>
+        <c:axId val="127050880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2674,12 +2671,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142606336"/>
+        <c:crossAx val="127051456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142606336"/>
+        <c:axId val="127051456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2763,7 +2760,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142081344"/>
+        <c:crossAx val="127050880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3008,13 +3005,13 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.8680500000000002</c:v>
+                  <c:v>3.1899600000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97830099999999998</c:v>
+                  <c:v>0.29833399999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.9170400000000001</c:v>
+                  <c:v>-2.59396</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3047,11 +3044,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="142610368"/>
-        <c:axId val="142610944"/>
+        <c:axId val="127053184"/>
+        <c:axId val="127053760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142610368"/>
+        <c:axId val="127053184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3125,12 +3122,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142610944"/>
+        <c:crossAx val="127053760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142610944"/>
+        <c:axId val="127053760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3214,7 +3211,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142610368"/>
+        <c:crossAx val="127053184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3534,181 +3531,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Serial Numbers"/>
-      <sheetName val="X1 LOAD CELL"/>
-      <sheetName val="X2 LOAD CELL"/>
-      <sheetName val="Y1 LOAD CELL"/>
-      <sheetName val="Z1 LOAD CELL"/>
-      <sheetName val="Z2 LOAD CELL"/>
-      <sheetName val="Z3 LOAD CELL"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="40">
-          <cell r="B40">
-            <v>3.0895100000000002</v>
-          </cell>
-          <cell r="C40">
-            <v>95.673775164691619</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41">
-            <v>0.187671</v>
-          </cell>
-          <cell r="C41">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42">
-            <v>-2.70695</v>
-          </cell>
-          <cell r="C42">
-            <v>-94.352529181974219</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="40">
-          <cell r="B40">
-            <v>2.95716</v>
-          </cell>
-          <cell r="C40">
-            <v>95.690850445790772</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41">
-            <v>8.2485500000000003E-2</v>
-          </cell>
-          <cell r="C41">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42">
-            <v>-2.7913999999999999</v>
-          </cell>
-          <cell r="C42">
-            <v>-95.652413529832614</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="40">
-          <cell r="B40">
-            <v>3.0139</v>
-          </cell>
-          <cell r="C40">
-            <v>96.378977315101366</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41">
-            <v>0.12667400000000001</v>
-          </cell>
-          <cell r="C41">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42">
-            <v>-2.74499</v>
-          </cell>
-          <cell r="C42">
-            <v>-95.479640308522548</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="40">
-          <cell r="B40">
-            <v>3.6030099999999998</v>
-          </cell>
-          <cell r="C40">
-            <v>95.732753579837848</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41">
-            <v>0.66711399999999998</v>
-          </cell>
-          <cell r="C41">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42">
-            <v>-2.27033</v>
-          </cell>
-          <cell r="C42">
-            <v>-95.934344392050065</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5">
-        <row r="40">
-          <cell r="B40">
-            <v>2.8841999999999999</v>
-          </cell>
-          <cell r="C40">
-            <v>95.866820583306819</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41">
-            <v>-2.35252E-2</v>
-          </cell>
-          <cell r="C41">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42">
-            <v>-2.9273799999999999</v>
-          </cell>
-          <cell r="C42">
-            <v>-95.766957634483703</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6">
-        <row r="40">
-          <cell r="B40">
-            <v>2.98366</v>
-          </cell>
-          <cell r="C40">
-            <v>95.07141274349226</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41">
-            <v>6.9250800000000001E-2</v>
-          </cell>
-          <cell r="C41">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42">
-            <v>-2.8436699999999999</v>
-          </cell>
-          <cell r="C42">
-            <v>-95.977178586181452</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3996,85 +3818,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="54.7109375" style="57" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" style="57"/>
-    <col min="3" max="3" width="8.85546875" style="57" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="57" customWidth="1"/>
     <col min="4" max="16384" width="8.85546875" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="57" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="58" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="57" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A2" s="59" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="57" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="57">
+        <v>33.2718456283677</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B4" s="57" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" s="57" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="57" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="57" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C4" s="57">
+        <v>32.618327648775299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A5" s="59" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="57" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="C5" s="57">
+        <v>33.128454725635798</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
         <v>39</v>
       </c>
       <c r="B6" s="57" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" s="57" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C6" s="57">
+        <v>32.965663689777301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A7" s="59" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="57" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="C7" s="57">
+        <v>33.299512733429097</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A8" s="59" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B8" s="57" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" s="57" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="18" s="57" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" s="57" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="20" s="57" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="21" s="57" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" s="57" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" s="57" customFormat="1" x14ac:dyDescent="0.2"/>
+        <v>35</v>
+      </c>
+      <c r="C8" s="57">
+        <v>32.948003734880999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
@@ -4087,7 +3920,7 @@
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView topLeftCell="A31" zoomScale="85" workbookViewId="0">
-      <selection activeCell="M51" sqref="M51"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4660,7 +4493,7 @@
         <v>26</v>
       </c>
       <c r="B40" s="51">
-        <v>3.0408400000000002</v>
+        <v>3.0278200000000002</v>
       </c>
       <c r="C40" s="49">
         <f>B33</f>
@@ -4680,7 +4513,7 @@
         <v>27</v>
       </c>
       <c r="B41" s="51">
-        <v>0.31564999999999999</v>
+        <v>0.16358300000000001</v>
       </c>
       <c r="C41" s="49">
         <v>0</v>
@@ -4697,7 +4530,7 @@
         <v>28</v>
       </c>
       <c r="B42" s="51">
-        <v>-2.6856499999999999</v>
+        <v>-2.70045</v>
       </c>
       <c r="C42" s="49">
         <f>B35</f>
@@ -4718,7 +4551,7 @@
       </c>
       <c r="M45" s="14">
         <f>SLOPE(C40:C42,B40:B42)</f>
-        <v>33.254403121151931</v>
+        <v>33.271845628367728</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
@@ -4727,7 +4560,7 @@
       </c>
       <c r="M46" s="14">
         <f>RSQ(C40:C42,B40:B42)</f>
-        <v>0.99910007379926857</v>
+        <v>0.99999536795638222</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
@@ -4736,7 +4569,7 @@
       </c>
       <c r="M47" s="14">
         <f>330/M45</f>
-        <v>9.9234979138777213</v>
+        <v>9.9182955970029045</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
@@ -4745,7 +4578,7 @@
       </c>
       <c r="M48" s="14">
         <f>-(-10-B41)*M45</f>
-        <v>343.04078355671089</v>
+        <v>338.16116460710253</v>
       </c>
     </row>
     <row r="49" spans="12:13" x14ac:dyDescent="0.2">
@@ -4754,7 +4587,7 @@
       </c>
       <c r="M49" s="14">
         <f>-(10-B41)*M45</f>
-        <v>-322.0472788663277</v>
+        <v>-327.27574796025203</v>
       </c>
     </row>
     <row r="51" spans="12:13" x14ac:dyDescent="0.2">
@@ -4779,7 +4612,7 @@
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView topLeftCell="A31" zoomScale="85" workbookViewId="0">
-      <selection activeCell="L53" sqref="L53"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5352,7 +5185,7 @@
         <v>26</v>
       </c>
       <c r="B40" s="51">
-        <v>3.0139800000000001</v>
+        <v>3.04833</v>
       </c>
       <c r="C40" s="49">
         <f>B33</f>
@@ -5372,7 +5205,7 @@
         <v>27</v>
       </c>
       <c r="B41" s="51">
-        <v>0.26650200000000002</v>
+        <v>0.14116699999999999</v>
       </c>
       <c r="C41" s="49">
         <v>0</v>
@@ -5389,7 +5222,7 @@
         <v>28</v>
       </c>
       <c r="B42" s="51">
-        <v>-2.7797399999999999</v>
+        <v>-2.74864</v>
       </c>
       <c r="C42" s="49">
         <f>B35</f>
@@ -5410,7 +5243,7 @@
       </c>
       <c r="M45" s="14">
         <f>SLOPE(C40:C42,B40:B42)</f>
-        <v>32.607810021277572</v>
+        <v>32.618327648775342</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
@@ -5419,7 +5252,7 @@
       </c>
       <c r="M46" s="14">
         <f>RSQ(C40:C42,B40:B42)</f>
-        <v>0.99911385245228368</v>
+        <v>0.99999704401967526</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
@@ -5428,7 +5261,7 @@
       </c>
       <c r="M47" s="14">
         <f>330/M45</f>
-        <v>10.120274860061595</v>
+        <v>10.117011624671379</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
@@ -5437,7 +5270,7 @@
       </c>
       <c r="M48" s="14">
         <f>-(-10-B41)*M45</f>
-        <v>334.76814679906619</v>
+        <v>330.78790794694805</v>
       </c>
     </row>
     <row r="49" spans="12:13" x14ac:dyDescent="0.2">
@@ -5446,7 +5279,7 @@
       </c>
       <c r="M49" s="14">
         <f>-(10-B41)*M45</f>
-        <v>-317.38805362648526</v>
+        <v>-321.57864502855875</v>
       </c>
     </row>
     <row r="51" spans="12:13" x14ac:dyDescent="0.2">
@@ -5471,7 +5304,7 @@
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView topLeftCell="A33" zoomScale="85" workbookViewId="0">
-      <selection activeCell="L55" sqref="L55"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6044,7 +5877,7 @@
         <v>26</v>
       </c>
       <c r="B40" s="51">
-        <v>3.0680399999999999</v>
+        <v>3.0439099999999999</v>
       </c>
       <c r="C40" s="49">
         <f>B33</f>
@@ -6064,7 +5897,7 @@
         <v>27</v>
       </c>
       <c r="B41" s="51">
-        <v>0.25391200000000003</v>
+        <v>0.13650000000000001</v>
       </c>
       <c r="C41" s="49">
         <v>0</v>
@@ -6081,7 +5914,7 @@
         <v>28</v>
       </c>
       <c r="B42" s="51">
-        <v>-2.7488800000000002</v>
+        <v>-2.7726899999999999</v>
       </c>
       <c r="C42" s="49">
         <f>B35</f>
@@ -6102,7 +5935,7 @@
       </c>
       <c r="M45" s="14">
         <f>SLOPE(C40:C42,B40:B42)</f>
-        <v>33.114024480878896</v>
+        <v>33.128454725635848</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
@@ -6111,7 +5944,7 @@
       </c>
       <c r="M46" s="14">
         <f>RSQ(C40:C42,B40:B42)</f>
-        <v>0.99958606831193497</v>
+        <v>0.99999675999398663</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
@@ -6120,7 +5953,7 @@
       </c>
       <c r="M47" s="14">
         <f>330/M45</f>
-        <v>9.9655661060029903</v>
+        <v>9.9612252588598871</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
@@ -6129,7 +5962,7 @@
       </c>
       <c r="M48" s="14">
         <f>-(-10-B41)*M45</f>
-        <v>339.54829299277787</v>
+        <v>335.80658132640775</v>
       </c>
     </row>
     <row r="49" spans="12:13" x14ac:dyDescent="0.2">
@@ -6138,7 +5971,7 @@
       </c>
       <c r="M49" s="14">
         <f>-(10-B41)*M45</f>
-        <v>-322.73219662480005</v>
+        <v>-326.76251318630921</v>
       </c>
     </row>
     <row r="51" spans="12:13" x14ac:dyDescent="0.2">
@@ -6163,7 +5996,7 @@
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView topLeftCell="A30" zoomScale="85" workbookViewId="0">
-      <selection activeCell="M51" sqref="M51"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6736,7 +6569,7 @@
         <v>26</v>
       </c>
       <c r="B40" s="51">
-        <v>2.73936</v>
+        <v>3.3293200000000001</v>
       </c>
       <c r="C40" s="49">
         <f>B33</f>
@@ -6756,7 +6589,7 @@
         <v>27</v>
       </c>
       <c r="B41" s="51">
-        <v>-0.14335500000000001</v>
+        <v>0.44909399999999999</v>
       </c>
       <c r="C41" s="49">
         <v>0</v>
@@ -6773,7 +6606,7 @@
         <v>28</v>
       </c>
       <c r="B42" s="51">
-        <v>-3.0323699999999998</v>
+        <v>-2.4423300000000001</v>
       </c>
       <c r="C42" s="49">
         <f>B35</f>
@@ -6794,7 +6627,7 @@
       </c>
       <c r="M45" s="14">
         <f>SLOPE(C40:C42,B40:B42)</f>
-        <v>32.965292656332217</v>
+        <v>32.965663689777294</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
@@ -6803,7 +6636,7 @@
       </c>
       <c r="M46" s="14">
         <f>RSQ(C40:C42,B40:B42)</f>
-        <v>0.99998238003533679</v>
+        <v>0.99997802664157376</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
@@ -6812,7 +6645,7 @@
       </c>
       <c r="M47" s="14">
         <f>330/M45</f>
-        <v>10.010528450036713</v>
+        <v>10.010415780050973</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
@@ -6821,7 +6654,7 @@
       </c>
       <c r="M48" s="14">
         <f>-(-10-B41)*M45</f>
-        <v>324.92718703457365</v>
+        <v>344.46131866686983</v>
       </c>
     </row>
     <row r="49" spans="12:13" x14ac:dyDescent="0.2">
@@ -6830,7 +6663,7 @@
       </c>
       <c r="M49" s="14">
         <f>-(10-B41)*M45</f>
-        <v>-334.37866609207066</v>
+        <v>-314.85195512867608</v>
       </c>
     </row>
     <row r="51" spans="12:13" x14ac:dyDescent="0.2">
@@ -6855,7 +6688,7 @@
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView topLeftCell="A27" zoomScale="85" workbookViewId="0">
-      <selection activeCell="M51" sqref="M51"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7428,7 +7261,7 @@
         <v>26</v>
       </c>
       <c r="B40" s="51">
-        <v>3.9192</v>
+        <v>3.2493599999999998</v>
       </c>
       <c r="C40" s="49">
         <f>B33</f>
@@ -7448,7 +7281,7 @@
         <v>27</v>
       </c>
       <c r="B41" s="51">
-        <v>1.04461</v>
+        <v>0.37279200000000001</v>
       </c>
       <c r="C41" s="49">
         <v>0</v>
@@ -7465,7 +7298,7 @@
         <v>28</v>
       </c>
       <c r="B42" s="51">
-        <v>-1.8371599999999999</v>
+        <v>-2.50562</v>
       </c>
       <c r="C42" s="49">
         <f>B35</f>
@@ -7486,7 +7319,7 @@
       </c>
       <c r="M45" s="14">
         <f>SLOPE(C40:C42,B40:B42)</f>
-        <v>33.291571584751779</v>
+        <v>33.299512733429125</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
@@ -7495,7 +7328,7 @@
       </c>
       <c r="M46" s="14">
         <f>RSQ(C40:C42,B40:B42)</f>
-        <v>0.99999356323665867</v>
+        <v>0.99999056146293175</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
@@ -7504,7 +7337,7 @@
       </c>
       <c r="M47" s="14">
         <f>330/M45</f>
-        <v>9.9124187982506289</v>
+        <v>9.9100549200744172</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
@@ -7513,7 +7346,7 @@
       </c>
       <c r="M48" s="14">
         <f>-(-10-B41)*M45</f>
-        <v>367.69242444066538</v>
+        <v>345.40891928521177</v>
       </c>
     </row>
     <row r="49" spans="12:13" x14ac:dyDescent="0.2">
@@ -7522,7 +7355,7 @@
       </c>
       <c r="M49" s="14">
         <f>-(10-B41)*M45</f>
-        <v>-298.1390072543702</v>
+        <v>-320.58133538337074</v>
       </c>
     </row>
     <row r="51" spans="12:13" x14ac:dyDescent="0.2">
@@ -7547,7 +7380,7 @@
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" workbookViewId="0">
-      <selection activeCell="L54" sqref="L54"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8120,7 +7953,7 @@
         <v>26</v>
       </c>
       <c r="B40" s="51">
-        <v>3.8680500000000002</v>
+        <v>3.1899600000000001</v>
       </c>
       <c r="C40" s="49">
         <f>B33</f>
@@ -8140,7 +7973,7 @@
         <v>27</v>
       </c>
       <c r="B41" s="51">
-        <v>0.97830099999999998</v>
+        <v>0.29833399999999999</v>
       </c>
       <c r="C41" s="49">
         <v>0</v>
@@ -8157,7 +7990,7 @@
         <v>28</v>
       </c>
       <c r="B42" s="51">
-        <v>-1.9170400000000001</v>
+        <v>-2.59396</v>
       </c>
       <c r="C42" s="49">
         <f>B35</f>
@@ -8178,7 +8011,7 @@
       </c>
       <c r="M45" s="14">
         <f>SLOPE(C40:C42,B40:B42)</f>
-        <v>32.94137788889384</v>
+        <v>32.94800373488102</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
@@ -8187,7 +8020,7 @@
       </c>
       <c r="M46" s="14">
         <f>RSQ(C40:C42,B40:B42)</f>
-        <v>0.99999426338821551</v>
+        <v>0.99999166799663675</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
@@ -8196,7 +8029,7 @@
       </c>
       <c r="M47" s="14">
         <f>330/M45</f>
-        <v>10.017795889201686</v>
+        <v>10.015781309707675</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
@@ -8205,7 +8038,7 @@
       </c>
       <c r="M48" s="14">
         <f>-(-10-B41)*M45</f>
-        <v>361.64036181902111</v>
+        <v>339.30954709505221</v>
       </c>
     </row>
     <row r="49" spans="12:13" x14ac:dyDescent="0.2">
@@ -8214,7 +8047,7 @@
       </c>
       <c r="M49" s="14">
         <f>-(10-B41)*M45</f>
-        <v>-297.18719595885568</v>
+        <v>-319.65052760256816</v>
       </c>
     </row>
     <row r="51" spans="12:13" x14ac:dyDescent="0.2">
